--- a/medicine/Psychotrope/Henry_Thrale/Henry_Thrale.xlsx
+++ b/medicine/Psychotrope/Henry_Thrale/Henry_Thrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Thrale, né entre 1724 et 1730 à Alehouse, Harrow Corner, Southwark, Angleterre et mort le 4 avril 1781 à Londres, est un homme d'affaires et homme politique britannique, ami intime de Samuel Johnson. Comme son père, il était propriétaire d'une grande brasserie de Londres, la H. Thrale &amp; Co.
 Il était le fils d'un riche brasseur, Ralph Thrale (1698 - 1758) et de Mary Thrale. Il a épousé Hester Lynch Salusbury le 11 octobre 1763. Le couple a eu douze enfants et sa femme est décédée après lui. 
